--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -214,10 +214,10 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -326,7 +326,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Разъёмы RJ-45+питание</t>
   </si>
   <si>
-    <t xml:space="preserve">Реистратор аналоговый 5 Мп 32 кан</t>
+    <t xml:space="preserve">Регистратор аналоговый 5 Мп 32 кан</t>
   </si>
   <si>
     <t xml:space="preserve">Регистратор IP 9- портовый</t>
@@ -214,10 +214,10 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -414,7 +414,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>18</v>

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -40,10 +40,10 @@
     <t xml:space="preserve">Регистратор аналоговый 5 Мп 4 кан</t>
   </si>
   <si>
-    <t xml:space="preserve">Реистратор аналоговый 5 Мп 8 кан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реистратор аналоговый 5 Мп 16 кан</t>
+    <t xml:space="preserve">Регистратор аналоговый 5 Мп 8 кан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистратор аналоговый 5 Мп 16 кан</t>
   </si>
   <si>
     <t xml:space="preserve">IP-камера компактная 2Мп(внутр.)</t>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t xml:space="preserve">Жесткий диск 2 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 3 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 4 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 5 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 6 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 7 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жесткий диск 8 ТБ</t>
   </si>
 </sst>
 </file>
@@ -213,11 +231,11 @@
   </sheetPr>
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -249,7 +267,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2800</v>
+        <v>3160</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -282,7 +300,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>11630</v>
+        <v>13200</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6</v>
@@ -337,7 +355,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>4000</v>
+        <v>4590</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>11</v>
@@ -495,6 +513,72 @@
       </c>
       <c r="C25" s="0" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>18300</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Equipment.xlsx
+++ b/Equipment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Наименование товара</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Жесткий диск 8 ТБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок бесперебойного питания</t>
   </si>
 </sst>
 </file>
@@ -232,10 +235,10 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.79"/>
   </cols>
@@ -542,7 +545,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>28</v>
@@ -564,7 +567,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>30</v>
@@ -579,6 +582,17 @@
       </c>
       <c r="C31" s="0" t="n">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
